--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Genotyping_Tube.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Genotyping_Tube.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="481">
   <si>
     <t xml:space="preserve">Sample and Library Normalization Planning Template</t>
   </si>
@@ -257,6 +257,9 @@
     <t xml:space="preserve">A04</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sample8NormPlanning</t>
   </si>
   <si>
@@ -396,9 +399,6 @@
   </si>
   <si>
     <t xml:space="preserve">A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">384-well plate</t>
@@ -2405,12 +2405,14 @@
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2419,7 +2421,7 @@
         <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>34</v>
@@ -2450,10 +2452,10 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2462,7 +2464,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>34</v>
@@ -14657,49 +14659,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14708,7 +14710,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="20"/>
     </row>
@@ -14717,7 +14719,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="20"/>
     </row>
@@ -14726,7 +14728,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="20"/>
     </row>
@@ -14735,7 +14737,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="20"/>
     </row>
@@ -14744,7 +14746,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="20"/>
     </row>
@@ -14753,7 +14755,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="20"/>
     </row>
@@ -14762,7 +14764,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="20"/>
     </row>
@@ -14771,7 +14773,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="20"/>
     </row>
@@ -14780,7 +14782,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="20"/>
     </row>
@@ -14789,7 +14791,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="20"/>
     </row>
@@ -14798,7 +14800,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="20"/>
     </row>
@@ -14807,7 +14809,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="20"/>
     </row>
@@ -14816,7 +14818,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="20"/>
     </row>
@@ -14825,7 +14827,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="20"/>
     </row>
@@ -14834,7 +14836,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="20"/>
     </row>
@@ -14843,7 +14845,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="20"/>
     </row>
@@ -14852,7 +14854,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="20"/>
     </row>
@@ -14861,7 +14863,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="20"/>
     </row>
@@ -14870,7 +14872,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="20"/>
     </row>
@@ -14879,7 +14881,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="20"/>
     </row>
@@ -14888,7 +14890,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="20"/>
     </row>
@@ -14933,7 +14935,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>8</v>
@@ -14942,22 +14944,22 @@
         <v>9</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>3</v>
@@ -14968,7 +14970,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>30</v>
@@ -14977,28 +14979,28 @@
         <v>31</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15012,7 +15014,7 @@
         <v>86</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>87</v>
@@ -15234,7 +15236,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>126</v>
@@ -15377,7 +15379,7 @@
         <v>111</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>108</v>
@@ -15391,7 +15393,7 @@
         <v>134</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>122</v>
@@ -15402,13 +15404,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F29" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>154</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>155</v>
@@ -15719,7 +15721,7 @@
         <v>111</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15733,7 +15735,7 @@
         <v>134</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15744,7 +15746,7 @@
         <v>186</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>154</v>

--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Genotyping_Tube.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Genotyping_Tube.xlsx
@@ -2189,7 +2189,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1002"/>
+  <dimension ref="A1:V1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -2399,49 +2399,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>34</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="L7" s="14"/>
-      <c r="O7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -2450,12 +2417,14 @@
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2464,7 +2433,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>34</v>
@@ -2474,32 +2443,59 @@
         <v>100</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="V8" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="L9" s="14"/>
-      <c r="Q9" s="0" t="str">
-        <f aca="false">IF(AND($O9&lt;&gt;"",$P9&lt;&gt;""), $O9*$P9, "")</f>
-        <v/>
+      <c r="O9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2706,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="13"/>
@@ -5916,7 +5912,9 @@
       <c r="C223" s="13"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-      <c r="I223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
       <c r="J223" s="2"/>
       <c r="L223" s="14"/>
       <c r="Q223" s="0" t="str">
@@ -10606,8 +10604,13 @@
       <c r="C558" s="13"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
-      <c r="H558" s="2"/>
+      <c r="I558" s="2"/>
       <c r="J558" s="2"/>
+      <c r="L558" s="14"/>
+      <c r="Q558" s="0" t="str">
+        <f aca="false">IF(AND($O558&lt;&gt;"",$P558&lt;&gt;""), $O558*$P558, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="2"/>
@@ -10615,7 +10618,7 @@
       <c r="C559" s="13"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
-      <c r="G559" s="2"/>
+      <c r="H559" s="2"/>
       <c r="J559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14590,10 +14593,11 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
+      <c r="C1001" s="13"/>
       <c r="D1001" s="2"/>
       <c r="E1001" s="2"/>
       <c r="G1001" s="2"/>
+      <c r="J1001" s="2"/>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1002" s="2"/>
@@ -14603,9 +14607,17 @@
       <c r="E1002" s="2"/>
       <c r="G1002" s="2"/>
     </row>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="G1003" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L557" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L558" type="list">
       <formula1>Index!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14613,19 +14625,19 @@
       <formula1>Index!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A1001" type="list">
       <formula1>Index!$B$2:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B1001" type="list">
       <formula1>Index!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J1000" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J1001" type="list">
       <formula1>IF($L6="384-well plate",Index!$H$2:$H$385,IF($L6="96-well plate", Index!$F$2:$F$97, Index!$H$2:$H$385))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C1000" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C1001" type="list">
       <formula1>Index!$K$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
